--- a/medicine/Enfance/Ida_Bindschedler/Ida_Bindschedler.xlsx
+++ b/medicine/Enfance/Ida_Bindschedler/Ida_Bindschedler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ida Bindschedler, née le 6 juillet 1854 à Zurich et morte le 28 juin 1919 également à Zurich, est une écrivaine suisse de littérature pour enfants.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Bindschedler naît à Zurich, du marchand de coton Friedrich Rudolf et d'Anna Tauber[1]. Sa famille passe ses étés à la Villa Bellerive, dont elle s'inspire ensuite pour ses livres[2],[3].
-Carrière
-Bindschedler reçoit une formation d'enseignante sous la direction de Joseph Viktor Widmann, qui lui recommandera plus tard d'enseigner dans une école privée à Zurich[4]. Elle enseigne dans cette école pendant 24 ans avant de la quitter en raison d'un problème cardiaque. Pendant son séjour, elle passe de professeur d'école primaire à professeur d'école secondaire et elle enseigne également à Paris. Elle travaille environ 40 heures par semaine, tant à l'école que dans les cours supplémentaires[1].
-Après sa retraite, elle déménage à Augsbourg, en Allemagne, où elle écrit son premier livre, The gymnastic children in summer[5]. Ses ouvrages pour enfants sont aussi populaires que la série Heidi de Johanna Spyri[6].
-Mort et héritage
-Bindschedler meurt le 28 juin 1919[6]. Une intrigue d'un de ses romans se déroule à Seeweid, dans un des kreis de Zurich et une rue est finalement en son honneur[1].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bindschedler naît à Zurich, du marchand de coton Friedrich Rudolf et d'Anna Tauber. Sa famille passe ses étés à la Villa Bellerive, dont elle s'inspire ensuite pour ses livres,.
 </t>
         </is>
       </c>
@@ -545,12 +557,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bindschedler reçoit une formation d'enseignante sous la direction de Joseph Viktor Widmann, qui lui recommandera plus tard d'enseigner dans une école privée à Zurich. Elle enseigne dans cette école pendant 24 ans avant de la quitter en raison d'un problème cardiaque. Pendant son séjour, elle passe de professeur d'école primaire à professeur d'école secondaire et elle enseigne également à Paris. Elle travaille environ 40 heures par semaine, tant à l'école que dans les cours supplémentaires.
+Après sa retraite, elle déménage à Augsbourg, en Allemagne, où elle écrit son premier livre, The gymnastic children in summer. Ses ouvrages pour enfants sont aussi populaires que la série Heidi de Johanna Spyri.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ida_Bindschedler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ida_Bindschedler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort et héritage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bindschedler meurt le 28 juin 1919. Une intrigue d'un de ses romans se déroule à Seeweid, dans un des kreis de Zurich et une rue est finalement en son honneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ida_Bindschedler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ida_Bindschedler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Voici une liste de publications sélectionnées[7] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Voici une liste de publications sélectionnées : 
 Turnachkinder
 Die Turnachkinder im Sommer (1906)
 Die Turnachkinder im Winter (1909)</t>
